--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Fzd8</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Fzd8</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H2">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I2">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J2">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q2">
-        <v>0.1987219355593333</v>
+        <v>0.1252027952746667</v>
       </c>
       <c r="R2">
-        <v>1.788497420034</v>
+        <v>1.126825157472</v>
       </c>
       <c r="S2">
-        <v>0.002751891603260508</v>
+        <v>0.002284334017632728</v>
       </c>
       <c r="T2">
-        <v>0.003023081669876795</v>
+        <v>0.002414743324231591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H3">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I3">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J3">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q3">
-        <v>0.398869056508</v>
+        <v>0.4218387276480001</v>
       </c>
       <c r="R3">
-        <v>3.589821508572</v>
+        <v>3.796548548832</v>
       </c>
       <c r="S3">
-        <v>0.00552351910379354</v>
+        <v>0.007696477969259938</v>
       </c>
       <c r="T3">
-        <v>0.006067844146225927</v>
+        <v>0.008135858702321358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H4">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I4">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J4">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N4">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q4">
-        <v>0.001141908921111111</v>
+        <v>0.0006443564853333333</v>
       </c>
       <c r="R4">
-        <v>0.01027718029</v>
+        <v>0.005799208368</v>
       </c>
       <c r="S4">
-        <v>1.581309865390119E-05</v>
+        <v>1.175633048527491E-05</v>
       </c>
       <c r="T4">
-        <v>1.737142866671144E-05</v>
+        <v>1.242748229359083E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06488733333333334</v>
+        <v>0.068624</v>
       </c>
       <c r="H5">
-        <v>0.194662</v>
+        <v>0.205872</v>
       </c>
       <c r="I5">
-        <v>0.01118619931635934</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="J5">
-        <v>0.01123574233808859</v>
+        <v>0.01198115042951486</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N5">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q5">
-        <v>0.2076212008823333</v>
+        <v>0.106392693816</v>
       </c>
       <c r="R5">
-        <v>1.245727205294</v>
+        <v>0.6383561628960001</v>
       </c>
       <c r="S5">
-        <v>0.002875128192359848</v>
+        <v>0.001941142361704504</v>
       </c>
       <c r="T5">
-        <v>0.002105641885644737</v>
+        <v>0.00136797290388284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.068624</v>
+      </c>
+      <c r="H6">
+        <v>0.205872</v>
+      </c>
+      <c r="I6">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="J6">
+        <v>0.01198115042951486</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.06488733333333334</v>
-      </c>
-      <c r="H6">
-        <v>0.194662</v>
-      </c>
-      <c r="I6">
-        <v>0.01118619931635934</v>
-      </c>
-      <c r="J6">
-        <v>0.01123574233808859</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N6">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q6">
-        <v>0.001433231418666667</v>
+        <v>0.002600140485333334</v>
       </c>
       <c r="R6">
-        <v>0.012899082768</v>
+        <v>0.023401264368</v>
       </c>
       <c r="S6">
-        <v>1.984731829154481E-05</v>
+        <v>4.743975043241557E-05</v>
       </c>
       <c r="T6">
-        <v>2.180320767441931E-05</v>
+        <v>5.014801678547964E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>16.977119</v>
       </c>
       <c r="I7">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J7">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N7">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O7">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P7">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q7">
-        <v>17.33119945290367</v>
+        <v>10.32477828218822</v>
       </c>
       <c r="R7">
-        <v>155.980795076133</v>
+        <v>92.92300453969401</v>
       </c>
       <c r="S7">
-        <v>0.2400015987899767</v>
+        <v>0.188376323410172</v>
       </c>
       <c r="T7">
-        <v>0.2636529844356735</v>
+        <v>0.1991304537282161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>16.977119</v>
       </c>
       <c r="I8">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J8">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>18.441306</v>
       </c>
       <c r="O8">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P8">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q8">
         <v>34.78669405304601</v>
@@ -948,10 +948,10 @@
         <v>313.0802464774141</v>
       </c>
       <c r="S8">
-        <v>0.4817244306740724</v>
+        <v>0.6346857385414447</v>
       </c>
       <c r="T8">
-        <v>0.5291968239509045</v>
+        <v>0.6709190242310528</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>16.977119</v>
       </c>
       <c r="I9">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J9">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N9">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O9">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P9">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q9">
-        <v>0.09958966640055555</v>
+        <v>0.05313649612344445</v>
       </c>
       <c r="R9">
-        <v>0.896306997605</v>
+        <v>0.478228465111</v>
       </c>
       <c r="S9">
-        <v>0.001379112808899633</v>
+        <v>0.0009694791989772282</v>
       </c>
       <c r="T9">
-        <v>0.001515019940588156</v>
+        <v>0.001024825356380103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>16.977119</v>
       </c>
       <c r="I10">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J10">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N10">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O10">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P10">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q10">
-        <v>18.10733391366717</v>
+        <v>8.773613816569501</v>
       </c>
       <c r="R10">
-        <v>108.644003482003</v>
+        <v>52.64168289941701</v>
       </c>
       <c r="S10">
-        <v>0.2507494706822494</v>
+        <v>0.1600752160109117</v>
       </c>
       <c r="T10">
-        <v>0.1836400163564285</v>
+        <v>0.112809118180202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,350 +1104,40 @@
         <v>16.977119</v>
       </c>
       <c r="I11">
-        <v>0.9755855634461335</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="J11">
-        <v>0.9799063747781704</v>
+        <v>0.9880188495704851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N11">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O11">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P11">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q11">
-        <v>0.1249968681573334</v>
+        <v>0.2144191266234445</v>
       </c>
       <c r="R11">
-        <v>1.124971813416</v>
+        <v>1.929772139611</v>
       </c>
       <c r="S11">
-        <v>0.001730950490935226</v>
+        <v>0.003912092408979466</v>
       </c>
       <c r="T11">
-        <v>0.00190153009457588</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H12">
-        <v>0.153465</v>
-      </c>
-      <c r="I12">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J12">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>3.062569</v>
-      </c>
-      <c r="N12">
-        <v>9.187707</v>
-      </c>
-      <c r="O12">
-        <v>0.2460077391286943</v>
-      </c>
-      <c r="P12">
-        <v>0.2690593624267</v>
-      </c>
-      <c r="Q12">
-        <v>0.2349985757925</v>
-      </c>
-      <c r="R12">
-        <v>1.409991454755</v>
-      </c>
-      <c r="S12">
-        <v>0.003254248735457156</v>
-      </c>
-      <c r="T12">
-        <v>0.002383296321149698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.153465</v>
-      </c>
-      <c r="I13">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J13">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>6.147102</v>
-      </c>
-      <c r="N13">
-        <v>18.441306</v>
-      </c>
-      <c r="O13">
-        <v>0.4937797859292233</v>
-      </c>
-      <c r="P13">
-        <v>0.5400483531609876</v>
-      </c>
-      <c r="Q13">
-        <v>0.4716825042150001</v>
-      </c>
-      <c r="R13">
-        <v>2.83009502529</v>
-      </c>
-      <c r="S13">
-        <v>0.006531836151357294</v>
-      </c>
-      <c r="T13">
-        <v>0.004783685063857158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.153465</v>
-      </c>
-      <c r="I14">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J14">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.01759833333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.05279499999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.001413625683459368</v>
-      </c>
-      <c r="P14">
-        <v>0.001546086421706485</v>
-      </c>
-      <c r="Q14">
-        <v>0.0013503641125</v>
-      </c>
-      <c r="R14">
-        <v>0.008102184675</v>
-      </c>
-      <c r="S14">
-        <v>1.86997759058338E-05</v>
-      </c>
-      <c r="T14">
-        <v>1.369505245161805E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.153465</v>
-      </c>
-      <c r="I15">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J15">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3.199718499999999</v>
-      </c>
-      <c r="N15">
-        <v>6.399436999999999</v>
-      </c>
-      <c r="O15">
-        <v>0.2570245810080547</v>
-      </c>
-      <c r="P15">
-        <v>0.1874056757697904</v>
-      </c>
-      <c r="Q15">
-        <v>0.24552239980125</v>
-      </c>
-      <c r="R15">
-        <v>0.9820895992049999</v>
-      </c>
-      <c r="S15">
-        <v>0.003399982133445439</v>
-      </c>
-      <c r="T15">
-        <v>0.001660017527717118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.07673250000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.153465</v>
-      </c>
-      <c r="I16">
-        <v>0.01322823723750722</v>
-      </c>
-      <c r="J16">
-        <v>0.008857882883740871</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.022088</v>
-      </c>
-      <c r="N16">
-        <v>0.066264</v>
-      </c>
-      <c r="O16">
-        <v>0.001774268250568265</v>
-      </c>
-      <c r="P16">
-        <v>0.00194052222081558</v>
-      </c>
-      <c r="Q16">
-        <v>0.00169486746</v>
-      </c>
-      <c r="R16">
-        <v>0.01016920476</v>
-      </c>
-      <c r="S16">
-        <v>2.347044134149391E-05</v>
-      </c>
-      <c r="T16">
-        <v>1.718891856528115E-05</v>
+        <v>0.004135428074634168</v>
       </c>
     </row>
   </sheetData>
